--- a/SchedulingData/dynamic9/pso/scheduling2_1.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_1.xlsx
@@ -466,55 +466,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>238.32</v>
+        <v>239.1</v>
       </c>
       <c r="D2" t="n">
-        <v>287.88</v>
+        <v>302.82</v>
       </c>
       <c r="E2" t="n">
-        <v>11.872</v>
+        <v>10.368</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>179.28</v>
+        <v>245.64</v>
       </c>
       <c r="D3" t="n">
-        <v>262.34</v>
+        <v>286.16</v>
       </c>
       <c r="E3" t="n">
-        <v>15.816</v>
+        <v>12.044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>232.24</v>
+        <v>201.2</v>
       </c>
       <c r="D4" t="n">
-        <v>270.94</v>
+        <v>254.96</v>
       </c>
       <c r="E4" t="n">
-        <v>13.596</v>
+        <v>11.724</v>
       </c>
     </row>
     <row r="5">
@@ -523,93 +523,93 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>221.42</v>
+        <v>254.2</v>
       </c>
       <c r="D5" t="n">
-        <v>286.32</v>
+        <v>308.7</v>
       </c>
       <c r="E5" t="n">
-        <v>12.048</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>244.1</v>
+        <v>308.7</v>
       </c>
       <c r="D6" t="n">
-        <v>306.1</v>
+        <v>358.4</v>
       </c>
       <c r="E6" t="n">
-        <v>10.56</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>270.94</v>
+        <v>254.96</v>
       </c>
       <c r="D7" t="n">
-        <v>316.36</v>
+        <v>314.66</v>
       </c>
       <c r="E7" t="n">
-        <v>10.684</v>
+        <v>8.864000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>262.34</v>
+        <v>302.82</v>
       </c>
       <c r="D8" t="n">
-        <v>315.14</v>
+        <v>340.58</v>
       </c>
       <c r="E8" t="n">
-        <v>13.656</v>
+        <v>7.232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>286.32</v>
+        <v>286.16</v>
       </c>
       <c r="D9" t="n">
-        <v>348.98</v>
+        <v>343.86</v>
       </c>
       <c r="E9" t="n">
-        <v>8.912000000000001</v>
+        <v>9.884</v>
       </c>
     </row>
     <row r="10">
@@ -618,17 +618,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>287.88</v>
+        <v>340.58</v>
       </c>
       <c r="D10" t="n">
-        <v>342.48</v>
+        <v>392.9</v>
       </c>
       <c r="E10" t="n">
-        <v>8.032</v>
+        <v>4.64</v>
       </c>
     </row>
     <row r="11">
@@ -637,74 +637,74 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>219.18</v>
+        <v>314.66</v>
       </c>
       <c r="D11" t="n">
-        <v>292.98</v>
+        <v>353.46</v>
       </c>
       <c r="E11" t="n">
-        <v>10.392</v>
+        <v>6.624</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>342.48</v>
+        <v>216.52</v>
       </c>
       <c r="D12" t="n">
-        <v>400.42</v>
+        <v>257.68</v>
       </c>
       <c r="E12" t="n">
-        <v>5.328</v>
+        <v>12.952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>306.1</v>
+        <v>208.58</v>
       </c>
       <c r="D13" t="n">
-        <v>364.86</v>
+        <v>282.18</v>
       </c>
       <c r="E13" t="n">
-        <v>7.804</v>
+        <v>14.272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>292.98</v>
+        <v>358.4</v>
       </c>
       <c r="D14" t="n">
-        <v>364.88</v>
+        <v>407.06</v>
       </c>
       <c r="E14" t="n">
-        <v>7.332</v>
+        <v>5.644</v>
       </c>
     </row>
     <row r="15">
@@ -713,22 +713,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>316.36</v>
+        <v>257.68</v>
       </c>
       <c r="D15" t="n">
-        <v>388.38</v>
+        <v>303.56</v>
       </c>
       <c r="E15" t="n">
-        <v>8.092000000000001</v>
+        <v>9.984</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -736,32 +736,32 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>364.88</v>
+        <v>303.56</v>
       </c>
       <c r="D16" t="n">
-        <v>414.06</v>
+        <v>352.94</v>
       </c>
       <c r="E16" t="n">
-        <v>4.524</v>
+        <v>7.176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>348.98</v>
+        <v>282.18</v>
       </c>
       <c r="D17" t="n">
-        <v>418.58</v>
+        <v>354.08</v>
       </c>
       <c r="E17" t="n">
-        <v>6.052</v>
+        <v>11.212</v>
       </c>
     </row>
     <row r="18">
@@ -770,17 +770,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>364.86</v>
+        <v>343.86</v>
       </c>
       <c r="D18" t="n">
-        <v>410.84</v>
+        <v>392.1</v>
       </c>
       <c r="E18" t="n">
-        <v>4.836</v>
+        <v>7.18</v>
       </c>
     </row>
   </sheetData>
